--- a/data_files/ipsos.xlsx
+++ b/data_files/ipsos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joethelion/Desktop/Ablage/datendesign_en_1ed/book/myData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HURSH 211219\cs\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1300" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -117,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -456,16 +456,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -481,7 +481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -489,7 +489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -497,7 +497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -505,7 +505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -521,7 +521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -529,7 +529,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -537,7 +537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -545,7 +545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -553,7 +553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -561,7 +561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -569,7 +569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -577,7 +577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -585,7 +585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -593,7 +593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
